--- a/Bolnica/Use case scenarij/DodatniNalazi.xlsx
+++ b/Bolnica/Use case scenarij/DodatniNalazi.xlsx
@@ -59,9 +59,6 @@
     <t>Pacijent dobija rezultate testova</t>
   </si>
   <si>
-    <t>Pacijent, Doktor,Medicinska sestra</t>
-  </si>
-  <si>
     <t>Doktor</t>
   </si>
   <si>
@@ -77,31 +74,34 @@
     <t>2.Daje povratnu informaciju o vremenu obavljanja testova</t>
   </si>
   <si>
-    <t>3.Unosi informaciju da je test uspjesno obavljen</t>
-  </si>
-  <si>
     <t>4.Unosi  rezultate laboratorijske analize</t>
   </si>
   <si>
-    <t>Test nije uspjesno obavljen</t>
-  </si>
-  <si>
     <t>Alternativni tok 1.</t>
   </si>
   <si>
     <t>Preduvjet:</t>
   </si>
   <si>
-    <t>1.Unosi informaciju da test nije moguce obaviti</t>
-  </si>
-  <si>
-    <t>2.Unosi informaciju zasto test nije moguce obaviti</t>
-  </si>
-  <si>
     <t>Obavljanje dodatnih testova</t>
   </si>
   <si>
     <t>Pacijent obavlja dodatne pretrage na inicijativu doktora</t>
+  </si>
+  <si>
+    <t>Doktor,Medicinska sestra</t>
+  </si>
+  <si>
+    <t>Test nije uspješno obavljen</t>
+  </si>
+  <si>
+    <t>3.Unosi informaciju da je test uspješno obavljen</t>
+  </si>
+  <si>
+    <t>1.Unosi informaciju da test nije moguće obaviti</t>
+  </si>
+  <si>
+    <t>2.Unosi informaciju zašto test nije moguće obaviti</t>
   </si>
 </sst>
 </file>
@@ -165,12 +165,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -179,6 +173,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,15 +496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,158 +512,158 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
